--- a/Shiny Template/ShinyApp/data/croplabelswithcategory.xlsx
+++ b/Shiny Template/ShinyApp/data/croplabelswithcategory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwiggins\Documents\hanover-DSPG-2023\data\crop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB8E03B6-8221-46EB-8A31-22B95081FB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{012A2428-B555-4750-B648-9D201A1FFAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="100" windowWidth="19040" windowHeight="9980" xr2:uid="{4D21828C-A5AF-4842-8667-505800DD4BC5}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{4D21828C-A5AF-4842-8667-505800DD4BC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -59,9 +57,6 @@
     <t>Corn</t>
   </si>
   <si>
-    <t>row crops</t>
-  </si>
-  <si>
     <t>Cotton</t>
   </si>
   <si>
@@ -83,24 +78,15 @@
     <t>Sweet Corn</t>
   </si>
   <si>
-    <t>horticulture crops</t>
-  </si>
-  <si>
     <t>Barley</t>
   </si>
   <si>
-    <t>small grains</t>
-  </si>
-  <si>
     <t>Winter Wheat</t>
   </si>
   <si>
     <t>Dbl Crop WinWht/Soybeans</t>
   </si>
   <si>
-    <t>double cropped</t>
-  </si>
-  <si>
     <t>Rye</t>
   </si>
   <si>
@@ -113,9 +99,6 @@
     <t>Alfalfa</t>
   </si>
   <si>
-    <t>forages</t>
-  </si>
-  <si>
     <t>Other Hay/Non Alfalfa</t>
   </si>
   <si>
@@ -128,9 +111,6 @@
     <t>Other Crops</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>Watermelons</t>
   </si>
   <si>
@@ -146,9 +126,6 @@
     <t>Apples</t>
   </si>
   <si>
-    <t>tree crops</t>
-  </si>
-  <si>
     <t>Grapes</t>
   </si>
   <si>
@@ -161,15 +138,9 @@
     <t>Open Water</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>Developed/Open Space</t>
   </si>
   <si>
-    <t>developed</t>
-  </si>
-  <si>
     <t>Developed/Low Intensity</t>
   </si>
   <si>
@@ -185,9 +156,6 @@
     <t>Deciduous Forest</t>
   </si>
   <si>
-    <t>forested</t>
-  </si>
-  <si>
     <t>Evergreen Forest</t>
   </si>
   <si>
@@ -203,9 +171,6 @@
     <t>Woody Wetlands</t>
   </si>
   <si>
-    <t>wetlands</t>
-  </si>
-  <si>
     <t>Herbaceous Wetlands</t>
   </si>
   <si>
@@ -237,13 +202,46 @@
   </si>
   <si>
     <t>Dbl Crop Barley/Soybeans</t>
+  </si>
+  <si>
+    <t>Row Crops</t>
+  </si>
+  <si>
+    <t>Horticulture Crops</t>
+  </si>
+  <si>
+    <t>Small Grains</t>
+  </si>
+  <si>
+    <t>Double Cropped</t>
+  </si>
+  <si>
+    <t>Forages</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Tree Crops</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Developed</t>
+  </si>
+  <si>
+    <t>Forested</t>
+  </si>
+  <si>
+    <t>Wetlands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,17 +597,17 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -643,14 +641,14 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <f>C2*0.222394</f>
         <v>9965.6975340000008</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -661,17 +659,17 @@
         <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F51" si="0">C3*0.222394</f>
         <v>30.02319</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -682,17 +680,17 @@
         <v>772</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
         <v>171.68816800000002</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -703,17 +701,17 @@
         <v>83905</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>18659.968570000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -724,17 +722,17 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
         <v>3.1135160000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -745,17 +743,17 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
         <v>7.5613960000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -766,17 +764,17 @@
         <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
         <v>28.021644000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -787,17 +785,17 @@
         <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
         <v>24.240946000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -808,17 +806,17 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
         <v>5.3374560000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -829,17 +827,17 @@
         <v>2873</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
         <v>638.93796199999997</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -850,17 +848,17 @@
         <v>16147</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>3590.9959180000001</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -871,17 +869,17 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>8.2285780000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -892,17 +890,17 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
         <v>4.4478800000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -913,17 +911,17 @@
         <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
         <v>22.906582</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -934,17 +932,17 @@
         <v>721</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
         <v>160.34607400000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -955,17 +953,17 @@
         <v>91861</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
         <v>20429.335234000002</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -976,17 +974,17 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
         <v>1.3343640000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -997,17 +995,17 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
         <v>0.22239400000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1018,17 +1016,17 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
         <v>5.3374560000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1039,17 +1037,17 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
         <v>0.88957600000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1060,17 +1058,17 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
         <v>0.66718200000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1081,17 +1079,17 @@
         <v>306</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
         <v>68.052564000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1102,17 +1100,17 @@
         <v>451</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
         <v>100.299694</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1123,17 +1121,17 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
         <v>1.5567580000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1144,17 +1142,17 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
         <v>4.2254860000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1165,17 +1163,17 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
         <v>0.44478800000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1186,17 +1184,17 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
         <v>1.7791520000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1207,17 +1205,17 @@
         <v>8015</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
         <v>1782.4879100000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1228,17 +1226,17 @@
         <v>100684</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
         <v>22391.517496</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1249,17 +1247,17 @@
         <v>48794</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
         <v>10851.492836000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1270,17 +1268,17 @@
         <v>24786</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
         <v>5512.2576840000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1291,17 +1289,17 @@
         <v>9206</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
         <v>2047.359164</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1312,17 +1310,17 @@
         <v>2405</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
         <v>534.85757000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1333,17 +1331,17 @@
         <v>248762</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
         <v>55323.176228000004</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1354,17 +1352,17 @@
         <v>147799</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
         <v>32869.610806000004</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1375,17 +1373,17 @@
         <v>319745</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
         <v>71109.369529999996</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1396,17 +1394,17 @@
         <v>31811</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
         <v>7074.5755340000005</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1417,17 +1415,17 @@
         <v>65138</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
         <v>14486.300372</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1438,17 +1436,17 @@
         <v>110640</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
         <v>24605.672160000002</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1459,17 +1457,17 @@
         <v>1056</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
         <v>234.84806400000002</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1480,17 +1478,17 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F42">
         <f t="shared" si="0"/>
         <v>0.22239400000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1501,17 +1499,17 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
         <v>0.22239400000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1522,17 +1520,17 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
         <v>0.22239400000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1543,17 +1541,17 @@
         <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
         <v>24.463340000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1564,17 +1562,17 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
         <v>3.1135160000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1585,17 +1583,17 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
         <v>11.786882</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1606,17 +1604,17 @@
         <v>890</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
         <v>197.93066000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1627,17 +1625,17 @@
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
         <v>4.670274</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1648,17 +1646,17 @@
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
         <v>5.55985</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1669,10 +1667,10 @@
         <v>1532</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
@@ -1686,15 +1684,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e9bd7074-53e2-486a-b5f4-1c7933985328">
@@ -1705,7 +1694,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001FF749B428B33B49BEE48E164690BF9D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aed51898d8df5dc8258e6cf9194ab489">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e9bd7074-53e2-486a-b5f4-1c7933985328" xmlns:ns3="f16e55e8-ebdf-466c-a0df-0c5a18258943" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="500489c3141aea71e3ab0db8d424c125" ns2:_="" ns3:_="">
     <xsd:import namespace="e9bd7074-53e2-486a-b5f4-1c7933985328"/>
@@ -1922,14 +1911,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FAD6961-ACB0-4BF7-9EAB-02124460A363}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF4608DE-A253-46F3-B809-17DC536EBB8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f16e55e8-ebdf-466c-a0df-0c5a18258943"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e9bd7074-53e2-486a-b5f4-1c7933985328"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF4608DE-A253-46F3-B809-17DC536EBB8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C8B3CEC-A682-4BF7-BCE4-33F57D2720C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e9bd7074-53e2-486a-b5f4-1c7933985328"/>
+    <ds:schemaRef ds:uri="f16e55e8-ebdf-466c-a0df-0c5a18258943"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C8B3CEC-A682-4BF7-BCE4-33F57D2720C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FAD6961-ACB0-4BF7-9EAB-02124460A363}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Shiny Template/ShinyApp/data/croplabelswithcategory.xlsx
+++ b/Shiny Template/ShinyApp/data/croplabelswithcategory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwiggins\Documents\hanover-DSPG-2023\data\crop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{012A2428-B555-4750-B648-9D201A1FFAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{097D745B-7599-45E9-A8B8-A3F6F59DF905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{4D21828C-A5AF-4842-8667-505800DD4BC5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -208,12 +208,6 @@
   </si>
   <si>
     <t>Horticulture Crops</t>
-  </si>
-  <si>
-    <t>Small Grains</t>
-  </si>
-  <si>
-    <t>Double Cropped</t>
   </si>
   <si>
     <t>Forages</t>
@@ -597,7 +591,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -809,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -830,7 +824,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -851,7 +845,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -872,7 +866,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -893,7 +887,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -914,7 +908,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -935,7 +929,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -956,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -1019,7 +1013,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
@@ -1082,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -1103,7 +1097,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -1124,7 +1118,7 @@
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -1166,7 +1160,7 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
@@ -1187,7 +1181,7 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
@@ -1208,7 +1202,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
@@ -1229,7 +1223,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
@@ -1250,7 +1244,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
@@ -1271,7 +1265,7 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
@@ -1292,7 +1286,7 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
@@ -1313,7 +1307,7 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
@@ -1334,7 +1328,7 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
@@ -1355,7 +1349,7 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
@@ -1376,7 +1370,7 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
@@ -1397,7 +1391,7 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
@@ -1418,7 +1412,7 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
@@ -1439,7 +1433,7 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
@@ -1460,7 +1454,7 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
@@ -1544,7 +1538,7 @@
         <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
@@ -1565,7 +1559,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
@@ -1607,7 +1601,7 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
@@ -1628,7 +1622,7 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
@@ -1649,7 +1643,7 @@
         <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
@@ -1670,7 +1664,7 @@
         <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
@@ -1684,14 +1678,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e9bd7074-53e2-486a-b5f4-1c7933985328">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f16e55e8-ebdf-466c-a0df-0c5a18258943" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1912,27 +1904,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e9bd7074-53e2-486a-b5f4-1c7933985328">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f16e55e8-ebdf-466c-a0df-0c5a18258943" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF4608DE-A253-46F3-B809-17DC536EBB8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FAD6961-ACB0-4BF7-9EAB-02124460A363}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f16e55e8-ebdf-466c-a0df-0c5a18258943"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e9bd7074-53e2-486a-b5f4-1c7933985328"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1957,9 +1942,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FAD6961-ACB0-4BF7-9EAB-02124460A363}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF4608DE-A253-46F3-B809-17DC536EBB8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f16e55e8-ebdf-466c-a0df-0c5a18258943"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e9bd7074-53e2-486a-b5f4-1c7933985328"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>